--- a/Job Hunter/exceltestsheet/LinkedInJobs.xlsx
+++ b/Job Hunter/exceltestsheet/LinkedInJobs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <x:si>
     <x:t>Job Title</x:t>
   </x:si>
@@ -55,31 +55,72 @@
     <x:t>URL</x:t>
   </x:si>
   <x:si>
-    <x:t>Superintendent - Commercial Construction</x:t>
+    <x:t>Sr Accountant</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            Irving, TX
+            New York City Metropolitan Area
           </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-                Full-time · Mid-Senior level
+                Full-time
               </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Great opportunity for a Commercial Superintendent to join a growing construction firm. Excellent Pay, Benefits and fun company culture awai...</x:t>
+          Before applying to this job, please make sure it's the most ideal fit for you! Review our departments and how different jobs compare to one...</x:t>
   </x:si>
   <x:si>
-    <x:t>/jobs/view/2785904058/?eBP=CwEAAAF9AwF9YRoVN2bMndcZF_RC-JyViMIQ8knjR0g70W74JPsc6daoVIi7kvMrucmUmdVpTvqcAnTWZK7p7y1MJ2CkqKQTPuUEuk8hZrATinh-f-Bex6J8cFV5HlpramFdRqHZDFfRKH0ubdt9xtEeaRmXP_HPdEqTeaSpdCG6XEKvyWV8jJqS0MMA147tD7nYGrHzoDleM7LTuX-OAHDySM9OTBmNO1rzVmgjL45TifsmPGTgHQFnUB7xF4DeVelbUCQfnv-1KOH8Vf4c4EnQjs2V78PNGAoCvtDd-53-75PpMNQRZ4ph0kAUO-gIg8qk4bpWqVPEp5zfN_ViBMZ_KYonB2wTTDz49FzjXTZPjY4psGNr0LL_aHuO9K-FJxO9YQ&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=AWAFlDunskhFpMc9VPm%2B%2Bg%3D%3D&amp;trackingId=XvvyHuR6RnhYx1F4XZcxGw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2783593747/?eBP=CwEAAAF9A0_a2A8gRDvfJli08UR4mBpjzvxBcYYSaQWzT6F7f_DSDzXc_WwFox5QAbTK0_7HOQeGEFsMJhqhw8B6PCONkcLLUD_aOg4tCU8ahyq6WSSLDntnK6GhUQQgyZoftCTKW6mOMS0iJt_jpB8LWrX8ij6MLn_0FNv3l881uVXQwiFkEUEZbBNEgZ44V1n5MTj889ZiM491fF2w-PDR4v7rxcDG60VlJ7myDGu8m6BawGZ8xZj0zj8IxwfYyjdDA6Np0vrMag1ID7Xo_vwZQ2UHOMtK2Wi88R7LA99KrI1BOVd6ZXPFKPEFi0KTC9SkAmvaEFMCsMMgDCCcTPrdjQfBlCtr8qtPvXhx0qvJUo9McOR4nnBCyiO_xA&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=QnBDEQPh8FqwWNivDALVtQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
-    <x:t>MEP - Construction Manager</x:t>
+    <x:t>Tax Accountant</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            Richardson, TX
+            Scarsdale, NY
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+                $52,000/yr - $81,000/yr (LinkedIn est.) · Full-time
+              </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          This position is for a full-time tax preparer responsible for tax preparation for individuals and small businesses. The position requires t...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2787317348/?eBP=CwEAAAF9A0_a2EEW6TKx9TbzTYNpgwF-srGT4_YJIz-hDnuuhWWlSrbXeJR0lViw-zqsoOlp6_VvZRRzH1lyhFrYQPEFUsES4x918ObY4VljTQGB2y_85fdXLY5NmI8MZtIQCJbqluxe4nNyKlpVCgu5KErvDMW7GSS0Zdk0KnCOkMWflvka1WyrP_rDtfMPE1rZc5WXyfxLIVt0Jrz7qSm-pHF3nbLOZiCUkAVdMxLfSdNIUBwGFiH6jHFa3G8isB11oXpqAlBYg270j9WUtPOoPx08tgWw-_uv-qoSvjNhpzQfRUW3ipLQhMyzCd1b8ocfTN8SR2tQlO9VrkBzjds8wYqSIAKQ0qemtpa_WczTKqOgdZv9Ds19bA5-oQ&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=vCW%2F6kqLjia3xrfzAn6dDw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            New York, NY
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+                Contract
+              </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          (part-time; average 8 hours/week; seeking candidate who specializes in non-profits)
+The Citizens Budget Commission (CBC), New York’s leadin...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2785218550/?eBP=CwEAAAF9A0_a2D5YFRve1WlGPeIIqjQ9E1jmfh4Q7rutwU6od0Lb7DIw6Sg2lSfW9QS9v372ImfDi4UKXw4YMm4Yw9s4B8THQ1pyRcpkIt8vZMTMu7GTjFdkCb37X9yh404BQDlBziQ4IeeGx4lAR2oyDThaPUyqgeRBgMI0oaSYHRFV0ysrSYg-xRIOFYSeDFDq7_sD1Ko5QuktXgtonZ4jz9QdbcCbSHkwCZit-gyrWWNH8Arg6l7SnxbRrtRGx5_leaJlqYoV_4zXI5RGGvbfz4TMk1OIF0T2HNd_JcDKm-9CpS4Nc6TXuSmA8A8pqlXIh_wrEP2z_-bbKbnOfWN--OHIggooZgUMZfMdnPlev2gtst7EugdrR-w7Ofjo&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=KXcz62jYCWgVd%2BqUGMq9vA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entry-Level Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Manhattan, NY
           </x:t>
   </x:si>
   <x:si>
@@ -89,52 +130,17 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Your vision is ambitious. Just like ours. 
-Our people are our success. As one of us, you will contribute to engineering excellence for the...</x:t>
+          Our client is a digital marketing firm is hiring for their Entry-Level Accountant Positions. The company has a great work hard play hard me...</x:t>
   </x:si>
   <x:si>
-    <x:t>/jobs/view/2786840225/?eBP=CwEAAAF9AwF9YYz0J4Wkl8t6Cg7LbDZtYyJpOc_XnlFx2TD1hvQuRqkHSU2A3ibV-3ayldVlNWK9t_n9mLxvWjEozwnI4DQB--gsR0bk6GUIE_uWsiHisfKGYSYczm8T4qNcwuwMdNpVGAKxsuKCrahVTb1Rl91FqcJlnHThBaVNd9ejmRfIOho-QFHjV7lm94PMehGnb1Yu5sKNZRFICu8isibDASJk_EXBaJzCPB-nXywA49-IvhQ0EzfgxQlqmT7PPohEbLrL_0iqOkfsRT64hws-35qN-3cBPJKGaS1lz-0mvJ_4qasUGAoOH8Fx4-NswMW_2s2O9FBGwPTY8nTnn4IAuNVgC3z8VZDLxVrueTUGn0HHriP35hW5cmGTBhZJiQ&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=AWAFlDunskhFpMc9VPm%2B%2Bg%3D%3D&amp;trackingId=k%2BLFw6Amnupfuo1p2Q5GRQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CSA - Construction Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/jobs/view/2786839334/?eBP=CwEAAAF9AwF9YR_-EYM2nfvvay5RnT2smgx1HEVJ_8BEDhzGAJvZjkjEGWTF3vwSJxYDTcgF3BB7Iehba4IIRlWaKtBpYzLY1PIJrygGuWAa0zk9f0qX-Td9Img_ZoxbYgybqYxUORwVjs4onqT4C9qgchd03kd-5t12JkX63pQZexyamAQ_tlwtJYI1HGMy4cwpMn_dYjxYAy-iqHnW0fMFNsSGV-oC1Mvem_ZZPlkkQzYC674q6-s88bt-C3tAOo-WqHxlrePYC3tNR7RMl9rBzfppSxv7MAFpUdOUKF8rfWmYF6-B-qJCDDdJ7XoxEO0b02KcmV_2bzDthPZAAh6IbZzHFTpKpO8j25t2rm_i4TDOfjxSbnPX4-LwmX1SMS7N_A&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=AWAFlDunskhFpMc9VPm%2B%2Bg%3D%3D&amp;trackingId=N2aqFei7hjEP2xFMShtkkg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            New York, NY
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                Full-time
-              </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-           Zeel is looking for a Junior Accountant - a high-energy individual with exceptional organizational skills to join the Finance team at this...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/jobs/view/2790511292/?eBP=CwEAAAF9ArAc4_kO04LFYN80e0-Nl9z6JfJ12V4k56i4FWnoSfVr_eMs6Q1ZcsKqWKp4nx71ZGlz0U6oFINTyrR9N9hdUiw_pb_mmySky-zdxVzjTc-mk_KQBdLWsbUe4evrLE6Am4XelnV6A8pr92p9YLb-JVGu5JTCFVEUs6Fwuxw7BjInNggY_x9mksQ-JdCoAY7a8Vp8p5Cs0M_DKfHc5b7np0fxPjDlhQ-vIgXJBzaZXbm5WonsOJ0PUJw4rPE5NnHrixJdM2UOASQES3OikQm7GLBmVz8yxSbNS5cGYNCTfA5smUUPxeLDuBcZNZE467R7LabIo8IRqhI032NSxWIeDx-xVnzsmNM_txWJys0BF4RljhWM-Jp5nEsnFKE&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=9%2FxOFpEp8W2X4OXcL5YNyA%3D%3D&amp;trackingId=MBNh%2FZLuUoKiJgQ43rYSbg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            New York City Metropolitan Area
-          </x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2780696661/?eBP=CwEAAAF9A0_a2Kg6-Mzw0FeJmuuXnn2yHq87UDQE9HZCifv2TXW4j4bM8Lmqlr8MeUTpIdoMi9aEQdoUTDLk6A6_RO_V-Vr8jGu3JXjqRFj0BqbsXCfnEazVED7Bk2vieo9ZS33BCXSYLETQFBDDwTHh4vTCNOHyjsCmQxsaYWy3P6AeLdyXBPEfOPDQUlcp6GBeDzEc6hdJISU_0CgUjNnWmbwNNtndbwE424P3aQmCZ_-FMLZc-S4dYo0t0ThFjRPqVZOH0bV5mzlR3A5j8f6EOhCQTeCp0HSNKk8KqC0TuprPKR49ZyTeu3yYkzdyJOI7TB04Rg0uePo0miaMQERu3wjbbXpP1IxvJ2HW36lN3jqs9La97iJi_L3nHpiJ&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=PtxoFn6nvl6bMJ%2Fmw2180w%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
           SIMULATE's mission is to accelerate the world's transition to sustainable nutrition. Our first product, NUGGS, is a chicken nugget simulati...</x:t>
   </x:si>
   <x:si>
-    <x:t>/jobs/view/2786815214/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=9%2FxOFpEp8W2X4OXcL5YNyA%3D%3D&amp;trackingId=9PCfAFJWjNjTZq7fOWkakA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2786815214/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=5UkQ1qhkDibwELu5gG19Bg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
@@ -148,66 +154,49 @@
 WWE seeks a motivated, experienced Accountant to join our General Accounting team. The ideal candida...</x:t>
   </x:si>
   <x:si>
-    <x:t>/jobs/view/2786681352/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=9%2FxOFpEp8W2X4OXcL5YNyA%3D%3D&amp;trackingId=lARRlfKDdy4WHUJ0CilZqw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                Contract
-              </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          (part-time; average 8 hours/week; seeking candidate who specializes in non-profits)
-The Citizens Budget Commission (CBC), New York’s leadin...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/jobs/view/2785218550/?eBP=CwEAAAF9ArAc4-KxA6H7MP6PW5BJe6srmxLNFVXnCFsslkwva-QTA1No1uYqNOt8tGzFNWyxHNXbosV0nIZ431DvttGDoIZ65RtrfPlE9BAz36HZZH-qHXZQnABFRAUND-5wKowwArW6Pz0GR0ezUn2JPFPX06lcP5VC6urZvaQ0Ao6vJMt6k0CbPX9vMGtA9tfcaBeao3ZcmDvemMd6jf2GBNTSPI5_6pJFzabUukxpXYdWIyiP_UQSkuP0Gyza8KufeN0VbYWuYwnDaEO1ytb89z3zskE_BZfP48XBUzphmbpDBhge7pTK2X0frw7-ecZgfHd__6KiwJuq78Q_v3fY8BROWb-gEpT7MQlAlwRjCgRg6jqO8EV5g0PC0ans&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=9%2FxOFpEp8W2X4OXcL5YNyA%3D%3D&amp;trackingId=pAo9ifrOsAxyXnvpFd7z2g%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Tax Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            White Plains, NY
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                $0/yr · Full-time
-              </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Skadden is seeking a Junior Tax Accountant to join the Firm. This position will be responsible for assisting the global tax department with...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/jobs/view/2783613103/?eBP=CwEAAAF9ArAc499URrJjkG1GUCR6qqaBlczRuYP-FmJ41808bEsipZLLcpu4mo32j6IfhvI4XUBPqLyMxbCvnGChvjpNmIFG4XJIOtB6lsunR9SILRPnCs7ihLo1d0rTiekzZilMK9BI36qmsbPkB2geAjEGpXHdMJo_ChFHKeiv6uyXhvTukbS_FrTU7umVbs7_ZAFz1HfcDOQ_cDq1BGfT8jCDDtgy6OOeDAuqtQNnxSn2YB6brOLGe7MTgxvPH_Y5uoPIif-9RV9EuylfakwIpsLLNPO2LZRzEUg7UeYgVxNOaas3-wjo3Y_JmVJIDUua3r9OKFp3qa2MFsdhUuy-m63ISxsi03fKoJKuHbI3a0jB4mzudkKOUJTenusd&amp;refId=9%2FxOFpEp8W2X4OXcL5YNyA%3D%3D&amp;trackingId=6B49O6JADypq5xAPCIoiuw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2786681352/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=AUju8bHJrfP0%2FzaoLglRcQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
     <x:t>Sr. Accountant</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            Shelton, CT
-          </x:t>
+          Description
+Are you a quick learner who can keep up in a fast-paced environment? Are you excited about the chance to be part of a renowned...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2784073893/?eBP=CwEAAAF9A0_a2JfJ2Ulbl5a--t0H-n72Qj0I1-_4Yk_KFPnR1ILw6suiiq-IOa5Z9lBjZoj-29IoQkdbTKp3voWSn7BJXTWSbQ8cP95i8KhGF1RqMBufxBgYC0HRK4t6BmrwwLknuBRN7fNw_ZOKiQ4dF_9AkbqSpafWM8tOMshmc6SOiBqS1Iq84RhNLwvM4QsvN8WbvNv64Q2tf-AvNcheVbk1prlCkSo_W_6s5b7UO9tIbI8AQXhUZiam3vk4eTP_WKvwGZG5aaQQ1xXuBC6zVnJjXHl2Z7cONPLhSk0gvTxCjeIJ77iHsXuKVj2k3JCmXSXM4m2t9GkTWowjBJ_Vi5M4YT6h6Og-6MTAYcKB7L7UgsmjZfNpFirkgYeg&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=To3w2RwOyW34g02PMiVpjA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junior Accountant</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          At Pitney Bowes, we do the right thing, the right way. As a member of our team, you can too.
-We have amazing people who are the driving fo...</x:t>
+           Zeel is looking for a Junior Accountant - a high-energy individual with exceptional organizational skills to join the Finance team at this...</x:t>
   </x:si>
   <x:si>
-    <x:t>/jobs/view/2782089403/?eBP=CwEAAAF9ArAc49nW6gVN6t1kicYy0xxevCiTBdD3bhNX9I4TokU4ktZzVpjxFZMNOP0ndELB8Yyu77PjHa5UizY0ntPB597KGDk4woI6CdVAWQUltq0kUVCYylqnzOwMONQ76kHmVnpIb7v8cnGNQyTm-jZsDt3yyUKEA14fn3QVT5zuKHqMviDnEBNwxqMk8uD4MPOxUu-3iff-kox4f01g4RRkybzQB-hlu8KdpF779XSfXo_oQ6UTHisdRlCjpXLQAgKDF1_ZmpRxwYb1zaKyWdErceW1fC5xKZZtHNQ2RLQ0zobScTlwdAUszb9Gl7evbvs9BsU7VeZVzqjQZ1mR2mFNMoJdVH7x8ddfFjXnUfZGRhPUm87MXxIPSJpGSw0&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=9%2FxOFpEp8W2X4OXcL5YNyA%3D%3D&amp;trackingId=naPDyO%2FOyZZKxHoLrvpDbg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2790511292/?eBP=CwEAAAF9A0_a2CEMlOHgHiqByAbBY8JYlbk423a4cE0ZvLaxibT42mP-ulyAr1jmqeJgZl-I6VhDhdWo7VVGqRy1p5ryMXghpH3mUTr78B0edQm_wrTLMYwQTb0VSS2dg2RJ7MAPVGKCvrnNuAbuupE-9SnxzMp4ei5btDTFuodWWzupSEHgpuPXcfVhbB-h-biL-MXWMQdEtTh4QwF296j3nOuJPHhe8_gTlR1oSj63AEpAoqmwS9lnCJrdo7GjOclWC-xiXfeVAHVUBV6-h6Wgx4OmzSs1X-uvwJ-o9tQwuP4JKpyNlsPe284IgUc2XMQxHGMPqsRJrIqMyYNDvkGefUT9UBlEIuqhKuImRGArelyk7wpEpI4mHoer3BkX&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=1YM4n2%2BzRRjAel1lS5QHYA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
-    <x:t>Entry-Level Accountant</x:t>
+    <x:t>Senior Revenue Accountant - 100% U.S. remote - must have ASC 606 experience</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Our client is a digital marketing firm is hiring for their Entry-Level Accountant Positions. The company has a great work hard play hard me...</x:t>
+          Sprinklr is a unified customer experience management (Unified-CXM) platform for modern enterprises with employees around the world helping ...</x:t>
   </x:si>
   <x:si>
-    <x:t>/jobs/view/2780358242/?eBP=CwEAAAF9ArAc4-MuEI-5v0VyshjpG7PyJDDrRNwTTnwlkbryRX_fKbOaBTKnq1vPbqLGwoRjvP680hTof50HH-OXO15ZmE14Dfpl7UH25XttJTTEykrNAL_Hw0ClOeSv-e_Z3rm7Z8E4fgjIOHjXJrEQ__J7ns8w0lC91qibmTkf28r3kY6--6gUP6tr8w1Wc95kH6MVawOji8QJd54vVAoRBFD3fB3IrWRp4vsVTk2NdCqkMkz4BjBTEbS7Tsi0OHor8Qj5VmacmYaYHhHDFvw5HrAU6CI9mejvxpYGgYtxwSYv9hKhyPhPzngRbXnAfsQOGJRdcymjgGw7HNLmY2AGnjrZ5L0AX_ZAYpunlPkmF3Wpm6KLhpEnQGoHRRH6&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=9%2FxOFpEp8W2X4OXcL5YNyA%3D%3D&amp;trackingId=HMRssGiu8PqIP%2FaLHqZbkw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2779840708/?eBP=CwEAAAF9A0_a2Xzrm_H6Xwsz_oO-abPSg_ZeQE4c5yu1lKOgZD82-mzBkcog3kRDY9-pvUndevExZBCYWzN6_9sD49LVRZ98ak_CGsMTAYymgd1NzUF1cqdiNwmy5r1_E1L-p8rr52DnfknRwdNhVk0X4yVpsCaBiyjjpTRF6gFBQltPV-UeDZSPW8sWtJQK79vpvMyNcN-XfbLK1H_xdk60PXU2Qc0f-mH7-DQUcQUz7n1JlfOosTboEbHDzs6_oM5GfCR-ZEG_itVxJr1PQkRGxriGltmyhK4-Rotn5gcYsivkMECzGQ3qkj6ocAqUODIqQAL4cR2_b4RWBT7N9KTyXbR0Bk2zqAhD5knLQg7ixNSSs8Bmz5W1W5SD4u55&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=FbcKf%2FJaAEAv0B15uCpjDw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Label Services Group Senior Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Who we are: 
+Take-Two develops and publishes some of the world's biggest games. Our Rockstar label creates Grand Theft Auto and Red Dead R...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2722221448/?eBP=CwEAAAF9A0_a2al4YKDrTkw-GJKNtikPxIBFjgwtC_yN3v4wfYDlm773oiaxBCs1-gJwg0NtK53h5rkK-0RYzg176mo-kj4ndkaTVsr_JGynNLgkt0vtdT5bhkFTpT1e2-yVMNK8093hWTv8wuHMts1tz03OxTpRH__P_QxwSmdhx5VofhoQjxFcPusgFozfCLmyF8V2-RtFmOh0MCG4R8IS4fssUHChr4ob6dlTm5NS_9F7X6EO3544goDObJEejz-BLb1aQwvi3h7Pn6FCqUd9gW0y3kXoDDdY7ms5UHgvIcRssLYUDqB6U6LqkWbaG63KJhJQqbXh1r0_a2o0GROwJv2UACy03aqOWB-g_3GiRIlQGdXOjPQLT85XEnxK&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=f%2B50u6IvO%2BX7RWuJEsK7BQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -250,8 +239,1808 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3062">
+  <x:cellStyleXfs count="3662">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -9875,159 +11664,159 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B4" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B6" s="7" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D6" s="7" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B7" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D7" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B7" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C7" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D7" s="7" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D8" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B8" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D8" s="7" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E9" s="8" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="E9" s="8" t="s">
+      <x:c r="F9" s="7" t="s">
         <x:v>36</x:v>
-      </x:c>
-      <x:c r="F9" s="7" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B10" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C10" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D10" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E10" s="8" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B10" s="7" t="s">
+      <x:c r="F10" s="7" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="C10" s="7" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D10" s="7" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E10" s="8" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F10" s="7" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Job Hunter/exceltestsheet/LinkedInJobs.xlsx
+++ b/Job Hunter/exceltestsheet/LinkedInJobs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <x:si>
     <x:t>Job Title</x:t>
   </x:si>
@@ -55,11 +55,96 @@
     <x:t>URL</x:t>
   </x:si>
   <x:si>
-    <x:t>Sr Accountant</x:t>
+    <x:t>Senior Revenue Accountant - 100% U.S. remote - must have ASC 606 experience</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            New York City Metropolitan Area
+            New York, NY
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+                Full-time · Associate
+              </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Sprinklr is a unified customer experience management (Unified-CXM) platform for modern enterprises with employees around the world helping ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2779839706/?eBP=CwEAAAF9Bj6K4tLLKJhFCkKTrryn3lkPn3AeyH1-u7gosBYPQyE-yeivi5k53x5v9zcWXjFbSSujuNSgP1A_M_aRyx_5sB-dpoD81-nZqQKe36HFB7KNmvKzzIx-oMDNll-FO4m3xmqsSGmu5gEppr4bzA1IlpQ6AcreDZUzLLjLv9qBUtKXCuhdzemJVJj1AZqb0IDzC7Ko3_SjVm0qdoe9EhITUQdQlFiQSei7QIjB7zs46uXPMwhd9VrrOyIKrknuKpGwvT4avHRhYgyrZm2EUlYI2mA2WfGEMtmztNhIWrEV92kfrLk0YBq3X5u1LKgimf2B9-Ru2ueF638wzDnV8_Q&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=N2utwGwQy7URjRXr%2BwTW5w%3D%3D&amp;trackingId=U%2FsZwMQrr8v%2BrDP0YX8KAg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junior Tax Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Frisco, TX
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            White Plains, NY
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Overview
+ Join an award-winning company! 
+ Who are we? 
+Since 1967, Toll Brothers has been building luxury homes and communities in the ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2749242015/?eBP=CwEAAAF9Bj1r8yOxaezlYU-hx1pRXAKXGQNqxLp6UrgEV42_wwj7isrnduXAiV6Nzy7jup40JQGOTiVsJ-O0zh7beFxBvBeqJ8960DgYH5oVmXgDUMpXCWGXuycDbZeE_Z6h7LBH52hqRlih-brLhnhx0BA7gLjaXEPmQCFyMjqNrRxE98SL-EcJ7y2C-W8hyp4ilMgPO0_oonU59M9uN_DWhZ5vs8isjSU9x7nJKyJU4lmmAXuzZddetu9dRn63H3BFyBHc0W6-5bEAw3IvmHkpwUyIkhK8UPhaimtXQRaWkeHt0zH2PRx23QAwPOJhNhrlEuLMMsL_Bn21_aJt-Nw0I0YzmWgLdcqCpqPBdVfnREtU3olZBaQYhYKx_FKw&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=mw29mCm4ze0iELgn8bIn9g%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Volunteer: Build Site Volunteers Needed!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Garland, TX
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+                Volunteer · Associate
+              </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Habitat for Humanity of Greater Garland, an ecumenical housing ministry, builds communities of hope, dignity and self-worth through the con...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2786581996/?eBP=CwEAAAF9Bj1r83MWGY_JCSuxA0gbnzUFlI_6pAHNHzwy3rvWt_R_DWMKEb30DGzWLZFMYwm7J_8At1vFgBbJIDa72MVv4c9ce4TUnDGX6d3JLrIR-oRa_PRri-RNoc0HckMRLXug73RQNsC6xNm9jFvd1sCC5mbwjLZafnyK5hZ16wN4gUMBhr-dUZHfVnH2PoHSC-jVm3Qb3J9dSltX3sQk1P7LaFtImSKJMrsNFDceZAf31koijigcWct6ImtTNhd6zoL4d0gO_kNdtaljMPQYKyg0k0mLSo3tuUsf-yzxY3Y1WkHjspl-z0SpsoaQMQ0qcISZaq0j2AN4MLLXmTRMNuGn3czl__TjhkPywZqNT_9U66mf-l1S6FaKTA&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=AGQ72sVDeCCDy97%2Fa%2BYA5Q%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Construction Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Grand Prairie, TX
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+                Full-time · Mid-Senior level
+              </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Texas Home Builder seeking Construction Managers
+This Jobot Job is hosted by Henry Chan
+Are you a fit? Easy Apply now by clicking the "Ap...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2775979794/?eBP=CwEAAAF9Bj1r873G28ycvxvikLQsB_QVfk-BSuwR4BMpBKmOnfOS7MHJ6ghpl88KeSJnzw-V4taJMD2ujwZ3VwF487Z9nil92I3_XzghHSTro73qwC_n2ana2Bi-2WHU5-cAI67fpGMf4-7x10cD-7svkzjvj5kCHRjE5RjoIivqJvSoaqBgNydAa_KS73nMVGsfQqAp9epKp0Vm3MVtZY9BXVgkURlbVjXo80ede9oNHWCZb1saEz-Yku0LCaSoTUKWvAJn_KgBSxfi7q10anvEppBTVWdRR662b1AIIF9uvoV0731wZSvebTeSN_TOhpe3fMzYfqNKw_dE4QT8xgebQ8fIFQp4DiPDD5zLoGu6acab1w8YN2QS-VDGl_FP&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=QDOABJQbJEGYO5Zs7bSvRg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Member Care Assistant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Dallas, TX
           </x:t>
   </x:si>
   <x:si>
@@ -69,134 +154,81 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Before applying to this job, please make sure it's the most ideal fit for you! Review our departments and how different jobs compare to one...</x:t>
+          The perfect candidate will provide exceptional customer service with a smile so big you can hear it through the phone. The perfect candidat...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2783593747/?eBP=CwEAAAF9A0_a2A8gRDvfJli08UR4mBpjzvxBcYYSaQWzT6F7f_DSDzXc_WwFox5QAbTK0_7HOQeGEFsMJhqhw8B6PCONkcLLUD_aOg4tCU8ahyq6WSSLDntnK6GhUQQgyZoftCTKW6mOMS0iJt_jpB8LWrX8ij6MLn_0FNv3l881uVXQwiFkEUEZbBNEgZ44V1n5MTj889ZiM491fF2w-PDR4v7rxcDG60VlJ7myDGu8m6BawGZ8xZj0zj8IxwfYyjdDA6Np0vrMag1ID7Xo_vwZQ2UHOMtK2Wi88R7LA99KrI1BOVd6ZXPFKPEFi0KTC9SkAmvaEFMCsMMgDCCcTPrdjQfBlCtr8qtPvXhx0qvJUo9McOR4nnBCyiO_xA&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=QnBDEQPh8FqwWNivDALVtQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2790554339/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=MfFGd8zbR%2FwJ8RO0qvLUKQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
-    <x:t>Tax Accountant</x:t>
+    <x:t>RESTAURANT / HOSPITALITY EXPERIENCE - Entry Level Positions</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            Scarsdale, NY
+            Dallas-Fort Worth Metroplex
           </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-                $52,000/yr - $81,000/yr (LinkedIn est.) · Full-time
+                Full-time · Entry level
               </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          This position is for a full-time tax preparer responsible for tax preparation for individuals and small businesses. The position requires t...</x:t>
+          Are you seeking an opportunity where you can drop anchor and build a career? Our promotional marketing firm has immediate positions availab...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2787317348/?eBP=CwEAAAF9A0_a2EEW6TKx9TbzTYNpgwF-srGT4_YJIz-hDnuuhWWlSrbXeJR0lViw-zqsoOlp6_VvZRRzH1lyhFrYQPEFUsES4x918ObY4VljTQGB2y_85fdXLY5NmI8MZtIQCJbqluxe4nNyKlpVCgu5KErvDMW7GSS0Zdk0KnCOkMWflvka1WyrP_rDtfMPE1rZc5WXyfxLIVt0Jrz7qSm-pHF3nbLOZiCUkAVdMxLfSdNIUBwGFiH6jHFa3G8isB11oXpqAlBYg270j9WUtPOoPx08tgWw-_uv-qoSvjNhpzQfRUW3ipLQhMyzCd1b8ocfTN8SR2tQlO9VrkBzjds8wYqSIAKQ0qemtpa_WczTKqOgdZv9Ds19bA5-oQ&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=vCW%2F6kqLjia3xrfzAn6dDw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2791924958/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=UZgHnXaGLFi4JtGVc1kluA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
-    <x:t>Accountant</x:t>
+    <x:t>Local Construction Superintendent - Tilt Wall projects</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            New York, NY
+          Local Superintendent, ENR Ranked Design Build Industrial General Contractor
+This Jobot Job is hosted by Eli Mandelbaum
+Are you a fit? Eas...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2778658271/?eBP=CwEAAAF9Bj1r8xBHob3KywHaU0keF5f3pQyfRrZeEOKzLRcICactERbEkvXpUqrqNZp6pX-q-S1FPJKM4ZCuy603XGkIZ16z4U4s4gYk9b_6mnD1_oYp4GIPaYPrJlcZSIGvt2ZWuv4jHt_fdT9ucPhJjI6HC1nlU9XuqEVnZpxlnLptoNWtszY6QsihvUPUy2KAuxYSj8wZMCD2IyGgAtUqR3qmuyQC7QgYvR1fGGd8ju_wYOMRAgKUzeeumhSQBlXaDF0g02NSlh9N8w1y3WoRdXY9rWR3f_926tQAxuOMG17Mj6TCweHHkwJbeg-fJbBozeUHn4Su1JTU6r-VXi7F3HF4q079gdMztiSC3sCEtlgdZhklsXSwh57wJy2J&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=IwXNzMZfNS9UmaJwWGI%2Fkw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Construction Superintendent - Multifamily</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          This Jobot Job is hosted by Jordon Cox
+Are you a fit? Easy Apply now by clicking the "Apply" button and sending us your resume.
+A Bit Abo...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2779402183/?eBP=CwEAAAF9Bj1r88mNgc8Bj4izdr1uWfrytf2mOyQlXM_AX6xR4diuyIk6NVnX2NHsLeDAUORZF8SQ4ubVlva_pnXHislKxZtQFCE4nyDA73am_OxA3q3jgdh-PdagXbC3ixmS4AL7cqg2EY8IZdGiW12hu_l3ZpfdPsYrL_HMKNA-SUzHf2Ejud33cKtCN71bUeEb5dTwim178G_Gg-pElyrboWWyKfpzpCUHQtZRVfAeSGAXS2ZELc3kA1xzWPWZSeJ2hCkvZZ-eBW8RiIO84HzfjFvPhEGNBgiv4nH8uwvVR2t1VqOuf7UNG7PqXkufvmeFUWhjnEoqzS-VQ-lsO1asNOpj3f89n5SZiZ1IsmCSFRPgGgf2tZ8BFHJvsrg-&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=iNJiB%2F6G1HJUgTI4%2F8YGLw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            McKinney, TX
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2775978793/?eBP=CwEAAAF9Bj1r8zkA1xActwusKpIr3rKftcQi2-a-kRR__fKLsKStTcyjF9_VkfypBS90PJhH44BnAagqq2p1qUYrEDJS5-JLe_kG7rvLCk0Y1i5UrQ9B7N_7Et33T0pG690KxDKybJlkQRVVHh3XcXMMJGiNpMKrgs9Ndvq6FZKcTdI4FaItmdmoFh2upLjspCl1Iwk_84euUVGAUYjOQomPbKJ9nHmWZ0oalwsV4ce4Np7NG2Ml_I6PltEvPxU4biE9Zkd8aJWbOvW1gNnNKdafb2yJC3tuDTaSVFaQ7ZCzqrIPQiNtSJbSqGkbLHirykFr3tPhJOxqvvuq5PRWA72mGTKF76TyJYz8cDWh8fACxNbWtp8W44_GusY8puYE&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=uEeq%2FBf34sE4hpDw7O0aEw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roofing Sales Rep, New Construction</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Irving, TX
           </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-                Contract
-              </x:t>
+          Location: DFW
+Pay: base 55-65k + commission
+Direct hire
+The Role
+We have an immediate need for a roofing sales rep with new constructio...</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">
-          (part-time; average 8 hours/week; seeking candidate who specializes in non-profits)
-The Citizens Budget Commission (CBC), New York’s leadin...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2785218550/?eBP=CwEAAAF9A0_a2D5YFRve1WlGPeIIqjQ9E1jmfh4Q7rutwU6od0Lb7DIw6Sg2lSfW9QS9v372ImfDi4UKXw4YMm4Yw9s4B8THQ1pyRcpkIt8vZMTMu7GTjFdkCb37X9yh404BQDlBziQ4IeeGx4lAR2oyDThaPUyqgeRBgMI0oaSYHRFV0ysrSYg-xRIOFYSeDFDq7_sD1Ko5QuktXgtonZ4jz9QdbcCbSHkwCZit-gyrWWNH8Arg6l7SnxbRrtRGx5_leaJlqYoV_4zXI5RGGvbfz4TMk1OIF0T2HNd_JcDKm-9CpS4Nc6TXuSmA8A8pqlXIh_wrEP2z_-bbKbnOfWN--OHIggooZgUMZfMdnPlev2gtst7EugdrR-w7Ofjo&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=KXcz62jYCWgVd%2BqUGMq9vA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entry-Level Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            Manhattan, NY
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                Full-time · Associate
-              </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Our client is a digital marketing firm is hiring for their Entry-Level Accountant Positions. The company has a great work hard play hard me...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2780696661/?eBP=CwEAAAF9A0_a2Kg6-Mzw0FeJmuuXnn2yHq87UDQE9HZCifv2TXW4j4bM8Lmqlr8MeUTpIdoMi9aEQdoUTDLk6A6_RO_V-Vr8jGu3JXjqRFj0BqbsXCfnEazVED7Bk2vieo9ZS33BCXSYLETQFBDDwTHh4vTCNOHyjsCmQxsaYWy3P6AeLdyXBPEfOPDQUlcp6GBeDzEc6hdJISU_0CgUjNnWmbwNNtndbwE424P3aQmCZ_-FMLZc-S4dYo0t0ThFjRPqVZOH0bV5mzlR3A5j8f6EOhCQTeCp0HSNKk8KqC0TuprPKR49ZyTeu3yYkzdyJOI7TB04Rg0uePo0miaMQERu3wjbbXpP1IxvJ2HW36lN3jqs9La97iJi_L3nHpiJ&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=PtxoFn6nvl6bMJ%2Fmw2180w%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          SIMULATE's mission is to accelerate the world's transition to sustainable nutrition. Our first product, NUGGS, is a chicken nugget simulati...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2786815214/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=5UkQ1qhkDibwELu5gG19Bg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            Stamford, CT
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Summary
- Accountant Job Description 
-WWE seeks a motivated, experienced Accountant to join our General Accounting team. The ideal candida...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2786681352/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=AUju8bHJrfP0%2FzaoLglRcQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sr. Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Description
-Are you a quick learner who can keep up in a fast-paced environment? Are you excited about the chance to be part of a renowned...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2784073893/?eBP=CwEAAAF9A0_a2JfJ2Ulbl5a--t0H-n72Qj0I1-_4Yk_KFPnR1ILw6suiiq-IOa5Z9lBjZoj-29IoQkdbTKp3voWSn7BJXTWSbQ8cP95i8KhGF1RqMBufxBgYC0HRK4t6BmrwwLknuBRN7fNw_ZOKiQ4dF_9AkbqSpafWM8tOMshmc6SOiBqS1Iq84RhNLwvM4QsvN8WbvNv64Q2tf-AvNcheVbk1prlCkSo_W_6s5b7UO9tIbI8AQXhUZiam3vk4eTP_WKvwGZG5aaQQ1xXuBC6zVnJjXHl2Z7cONPLhSk0gvTxCjeIJ77iHsXuKVj2k3JCmXSXM4m2t9GkTWowjBJ_Vi5M4YT6h6Og-6MTAYcKB7L7UgsmjZfNpFirkgYeg&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=To3w2RwOyW34g02PMiVpjA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-           Zeel is looking for a Junior Accountant - a high-energy individual with exceptional organizational skills to join the Finance team at this...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2790511292/?eBP=CwEAAAF9A0_a2CEMlOHgHiqByAbBY8JYlbk423a4cE0ZvLaxibT42mP-ulyAr1jmqeJgZl-I6VhDhdWo7VVGqRy1p5ryMXghpH3mUTr78B0edQm_wrTLMYwQTb0VSS2dg2RJ7MAPVGKCvrnNuAbuupE-9SnxzMp4ei5btDTFuodWWzupSEHgpuPXcfVhbB-h-biL-MXWMQdEtTh4QwF296j3nOuJPHhe8_gTlR1oSj63AEpAoqmwS9lnCJrdo7GjOclWC-xiXfeVAHVUBV6-h6Wgx4OmzSs1X-uvwJ-o9tQwuP4JKpyNlsPe284IgUc2XMQxHGMPqsRJrIqMyYNDvkGefUT9UBlEIuqhKuImRGArelyk7wpEpI4mHoer3BkX&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=1YM4n2%2BzRRjAel1lS5QHYA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Revenue Accountant - 100% U.S. remote - must have ASC 606 experience</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Sprinklr is a unified customer experience management (Unified-CXM) platform for modern enterprises with employees around the world helping ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2779840708/?eBP=CwEAAAF9A0_a2Xzrm_H6Xwsz_oO-abPSg_ZeQE4c5yu1lKOgZD82-mzBkcog3kRDY9-pvUndevExZBCYWzN6_9sD49LVRZ98ak_CGsMTAYymgd1NzUF1cqdiNwmy5r1_E1L-p8rr52DnfknRwdNhVk0X4yVpsCaBiyjjpTRF6gFBQltPV-UeDZSPW8sWtJQK79vpvMyNcN-XfbLK1H_xdk60PXU2Qc0f-mH7-DQUcQUz7n1JlfOosTboEbHDzs6_oM5GfCR-ZEG_itVxJr1PQkRGxriGltmyhK4-Rotn5gcYsivkMECzGQ3qkj6ocAqUODIqQAL4cR2_b4RWBT7N9KTyXbR0Bk2zqAhD5knLQg7ixNSSs8Bmz5W1W5SD4u55&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=FbcKf%2FJaAEAv0B15uCpjDw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Label Services Group Senior Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Who we are: 
-Take-Two develops and publishes some of the world's biggest games. Our Rockstar label creates Grand Theft Auto and Red Dead R...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2722221448/?eBP=CwEAAAF9A0_a2al4YKDrTkw-GJKNtikPxIBFjgwtC_yN3v4wfYDlm773oiaxBCs1-gJwg0NtK53h5rkK-0RYzg176mo-kj4ndkaTVsr_JGynNLgkt0vtdT5bhkFTpT1e2-yVMNK8093hWTv8wuHMts1tz03OxTpRH__P_QxwSmdhx5VofhoQjxFcPusgFozfCLmyF8V2-RtFmOh0MCG4R8IS4fssUHChr4ob6dlTm5NS_9F7X6EO3544goDObJEejz-BLb1aQwvi3h7Pn6FCqUd9gW0y3kXoDDdY7ms5UHgvIcRssLYUDqB6U6LqkWbaG63KJhJQqbXh1r0_a2o0GROwJv2UACy03aqOWB-g_3GiRIlQGdXOjPQLT85XEnxK&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=yD3FIZOV9coyLD4pa9AJlQ%3D%3D&amp;trackingId=f%2B50u6IvO%2BX7RWuJEsK7BQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2783010603/?eBP=CwEAAAF9Bj1r9IxAg0znB6f7i22O5DSvNfiy7PkeZCUIco4nE4Z0nfINYgsI4cWj2DxMtrd-B9r2YB_vnTVDVnHboTLffCTTcuRrkOQGa5meOy1jLb6mZl3YaGqkuCHQjtdpei9-nfArxymc6ioWHljU_zQfSWOXJ8mrbxTMDYn5r7zbRJyZzL3BF3EHhNFocrlZgnK_zRMEBJBALuvjg-FIvdxOirYZumzae18Nc0Mr4j2lfKdvqTp4E1XtbueoFgcPJqL4cSafy_29rQu7Mno6EcBkIPewektXvwYxxBD-g57S4j-3kQgD5Np7aRwj-IxNJnEPRvTEQghFJNbmHYxir7MM2hnWax_-9x9jVl6-J1Di3259YIma2QbfX8-S&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=5tTq%2FtP%2FNZhiCFa4zfvC4A%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -239,8 +271,1028 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3662">
+  <x:cellStyleXfs count="4002">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -11647,10 +12699,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="12" t="s">
         <x:v>14</x:v>
@@ -11701,122 +12753,122 @@
     </x:row>
     <x:row r="6" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Job Hunter/exceltestsheet/LinkedInJobs.xlsx
+++ b/Job Hunter/exceltestsheet/LinkedInJobs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Job Title</x:t>
   </x:si>
@@ -72,99 +72,45 @@
           Sprinklr is a unified customer experience management (Unified-CXM) platform for modern enterprises with employees around the world helping ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2779839706/?eBP=CwEAAAF9Bj6K4tLLKJhFCkKTrryn3lkPn3AeyH1-u7gosBYPQyE-yeivi5k53x5v9zcWXjFbSSujuNSgP1A_M_aRyx_5sB-dpoD81-nZqQKe36HFB7KNmvKzzIx-oMDNll-FO4m3xmqsSGmu5gEppr4bzA1IlpQ6AcreDZUzLLjLv9qBUtKXCuhdzemJVJj1AZqb0IDzC7Ko3_SjVm0qdoe9EhITUQdQlFiQSei7QIjB7zs46uXPMwhd9VrrOyIKrknuKpGwvT4avHRhYgyrZm2EUlYI2mA2WfGEMtmztNhIWrEV92kfrLk0YBq3X5u1LKgimf2B9-Ru2ueF638wzDnV8_Q&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=N2utwGwQy7URjRXr%2BwTW5w%3D%3D&amp;trackingId=U%2FsZwMQrr8v%2BrDP0YX8KAg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2779839687/?eBP=CwEAAAF9BrfPcnkslRNACbG8RwZ4HAQ6L4ZWENdKw1xGau_1Ob3NYPzTaAn6cnuf6bvDvOhh88530sNnMqc6ixpJAhMEQOEkVML3Iq3trf6EBBA0aHEYiQvOAqI0lAWrg2YmOGfRm7Y__x7WR07GG9_Ndpa9pfm0_LpY5L6i1CBFHjqZ_lbd9TkyNR_uw6rEPfAZUDNK7-zsyOE8kM2ZVVwGLuWmopatC_V-9BrXtzQBBpi2NQCf1xQ4N_0rAs2-UT86JtfSpFcnvcn2oUUVp7KIhlLvhOkjX6LFSR87T7Wif_P2Bk3SNwwJBchlW_i6sMPARQdl0EU4aPiyMStVohh2e5M&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=I6XIgDh4RhcBMl4bI9ZWWQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
-    <x:t>Junior Tax Accountant</x:t>
+    <x:t>Experienced Tax Accountant - Work From Home</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            Frisco, TX
+                Part-time · Associate
+              </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Overview
+Do you have a minimum of 3 season of paid Tax Preparation experience, with a minimum of 30 tax returns per tax year? If you're a ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2748692587/?eBP=CwEAAAF9BrfPctg_aXd7t_Cx81stTDC2dKnAcMdoz--SnKbjc4JiSPFywE0yYzE4N0J7wSaniRJrWmTl-jgx2ZbY7iWm21fjt90UIyM3y6CUP3uewWFf6pJ2InosWEWH5gfl_SUY2uNlslQUVYj8gl4areRsUtcWz7INrYKTcSEzvv-Hey9BpzWLGXuJxakIc6lLDUQ2EaNCIKDgAvaoyw_fwdnU447wOnE_rnWkWIQFQFQUti8aG8NDjM9am_bSQtRjeew2bsjSeoT-KmsaA3VQGQQNm4_Umzl7pYnPIcmIOfX77JSLlyQAFXaDXCQLcROUfeoVxp1sPQzFSpIxO37rE30&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=CdsbHDle3efojnDiKtxnlw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            New Haven, CT
           </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            White Plains, NY
-          </x:t>
+          Dice is the leading career destination for tech experts at every stage of their careers. Our client, GSS Infotech, is seeking the following...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2786318752/?eBP=CwEAAAF9BrfPciI54thvN_JOGcb6UYXDA47XxX0vf9FSDEZFL9EJHV9z3oCVfKZxSKo2WPLi2E4kkW2UP5yZ1rfL2PuBTjmL4oh5-jInue-pk5EW-du-X1rKOwjhaSAGJM9MazUHDMQQXCKW-MNk--QcSUqgQVdhEUZ6HoY1Z_OCA4ITzyK0ry6zBpPMN0TMoJ6FM5mTVWYmooRs0N7r5tgH45MVsYarzU8M1io4BQaoduwZ5L6aunZWu4JjfyzUdUdVVS7ctRt_4FOmbmJ2b8NIKf3nALMZB-jShTmOv3OneKSNj-6jxtOVgxfMuXMzc2kHoKJlGZXWmHQ0AsD8hL0YJJg&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=RH0fMJ1p5%2FgKtMbvsiHtyQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entry Level Jr Accountant</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Overview
- Join an award-winning company! 
- Who are we? 
-Since 1967, Toll Brothers has been building luxury homes and communities in the ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2749242015/?eBP=CwEAAAF9Bj1r8yOxaezlYU-hx1pRXAKXGQNqxLp6UrgEV42_wwj7isrnduXAiV6Nzy7jup40JQGOTiVsJ-O0zh7beFxBvBeqJ8960DgYH5oVmXgDUMpXCWGXuycDbZeE_Z6h7LBH52hqRlih-brLhnhx0BA7gLjaXEPmQCFyMjqNrRxE98SL-EcJ7y2C-W8hyp4ilMgPO0_oonU59M9uN_DWhZ5vs8isjSU9x7nJKyJU4lmmAXuzZddetu9dRn63H3BFyBHc0W6-5bEAw3IvmHkpwUyIkhK8UPhaimtXQRaWkeHt0zH2PRx23QAwPOJhNhrlEuLMMsL_Bn21_aJt-Nw0I0YzmWgLdcqCpqPBdVfnREtU3olZBaQYhYKx_FKw&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=mw29mCm4ze0iELgn8bIn9g%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Volunteer: Build Site Volunteers Needed!</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            Garland, TX
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                Volunteer · Associate
-              </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Habitat for Humanity of Greater Garland, an ecumenical housing ministry, builds communities of hope, dignity and self-worth through the con...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2786581996/?eBP=CwEAAAF9Bj1r83MWGY_JCSuxA0gbnzUFlI_6pAHNHzwy3rvWt_R_DWMKEb30DGzWLZFMYwm7J_8At1vFgBbJIDa72MVv4c9ce4TUnDGX6d3JLrIR-oRa_PRri-RNoc0HckMRLXug73RQNsC6xNm9jFvd1sCC5mbwjLZafnyK5hZ16wN4gUMBhr-dUZHfVnH2PoHSC-jVm3Qb3J9dSltX3sQk1P7LaFtImSKJMrsNFDceZAf31koijigcWct6ImtTNhd6zoL4d0gO_kNdtaljMPQYKyg0k0mLSo3tuUsf-yzxY3Y1WkHjspl-z0SpsoaQMQ0qcISZaq0j2AN4MLLXmTRMNuGn3czl__TjhkPywZqNT_9U66mf-l1S6FaKTA&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=AGQ72sVDeCCDy97%2Fa%2BYA5Q%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Construction Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            Grand Prairie, TX
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                Full-time · Mid-Senior level
-              </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Texas Home Builder seeking Construction Managers
-This Jobot Job is hosted by Henry Chan
-Are you a fit? Easy Apply now by clicking the "Ap...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2775979794/?eBP=CwEAAAF9Bj1r873G28ycvxvikLQsB_QVfk-BSuwR4BMpBKmOnfOS7MHJ6ghpl88KeSJnzw-V4taJMD2ujwZ3VwF487Z9nil92I3_XzghHSTro73qwC_n2ana2Bi-2WHU5-cAI67fpGMf4-7x10cD-7svkzjvj5kCHRjE5RjoIivqJvSoaqBgNydAa_KS73nMVGsfQqAp9epKp0Vm3MVtZY9BXVgkURlbVjXo80ede9oNHWCZb1saEz-Yku0LCaSoTUKWvAJn_KgBSxfi7q10anvEppBTVWdRR662b1AIIF9uvoV0731wZSvebTeSN_TOhpe3fMzYfqNKw_dE4QT8xgebQ8fIFQp4DiPDD5zLoGu6acab1w8YN2QS-VDGl_FP&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=QDOABJQbJEGYO5Zs7bSvRg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Member Care Assistant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            Dallas, TX
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                Full-time
-              </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          The perfect candidate will provide exceptional customer service with a smile so big you can hear it through the phone. The perfect candidat...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2790554339/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=MfFGd8zbR%2FwJ8RO0qvLUKQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RESTAURANT / HOSPITALITY EXPERIENCE - Entry Level Positions</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            Dallas-Fort Worth Metroplex
+            New York City Metropolitan Area
           </x:t>
   </x:si>
   <x:si>
@@ -174,61 +120,92 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Are you seeking an opportunity where you can drop anchor and build a career? Our promotional marketing firm has immediate positions availab...</x:t>
+          Our client is an eCommerce firm that is looking for an entry-level junior accountant to join their team!
+·  Assist with month-end closing a...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2791924958/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=UZgHnXaGLFi4JtGVc1kluA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Local Construction Superintendent - Tilt Wall projects</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2783859054/?eBP=CwEAAAF9BrfPcmd6C-aWTx0xl2bVkdiLAcrMvpizl9k4tnga10awuPXuoZNYP_FONjm1RSQMVLjSVV5jldRO-aDZKD0AgufpZQpEFrQ8yjXaqRfyq8PlAGLsDEavWwRbfat6p-ynT1j-CrKd-_0A4i6LgIhC2EpUo0jyIPGH78UTQACrEv9wXN2sXJrYvrH2t7DWjx4xykhNCYjAfSuHV_ihFbkk6xjIoWGiOmEiij7P8gN4Ic2Xm_oTbCEYcfyyc729LOoQPFGtbWi0RZ9QvcnBHEy6TtGvFOCY_vSqH4AG61yTTuKxlQTwcDCGRiDE_ZxOG9imTWk5fS_ZL75jnzwmmw75Hua9NAgwSATUYxaxxTLlFvBOPPWtz9L-F2fQVBc&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=OohC997PFddQ9qN1h7sNWQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Local Superintendent, ENR Ranked Design Build Industrial General Contractor
-This Jobot Job is hosted by Eli Mandelbaum
-Are you a fit? Eas...</x:t>
+          SIMULATE's mission is to accelerate the world's transition to sustainable nutrition. Our first product, NUGGS, is a chicken nugget simulati...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2778658271/?eBP=CwEAAAF9Bj1r8xBHob3KywHaU0keF5f3pQyfRrZeEOKzLRcICactERbEkvXpUqrqNZp6pX-q-S1FPJKM4ZCuy603XGkIZ16z4U4s4gYk9b_6mnD1_oYp4GIPaYPrJlcZSIGvt2ZWuv4jHt_fdT9ucPhJjI6HC1nlU9XuqEVnZpxlnLptoNWtszY6QsihvUPUy2KAuxYSj8wZMCD2IyGgAtUqR3qmuyQC7QgYvR1fGGd8ju_wYOMRAgKUzeeumhSQBlXaDF0g02NSlh9N8w1y3WoRdXY9rWR3f_926tQAxuOMG17Mj6TCweHHkwJbeg-fJbBozeUHn4Su1JTU6r-VXi7F3HF4q079gdMztiSC3sCEtlgdZhklsXSwh57wJy2J&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=IwXNzMZfNS9UmaJwWGI%2Fkw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Construction Superintendent - Multifamily</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2786815214/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=7WDFxhrw%2Bw%2Bgp6iHJyfxlQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          This Jobot Job is hosted by Jordon Cox
-Are you a fit? Easy Apply now by clicking the "Apply" button and sending us your resume.
-A Bit Abo...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2779402183/?eBP=CwEAAAF9Bj1r88mNgc8Bj4izdr1uWfrytf2mOyQlXM_AX6xR4diuyIk6NVnX2NHsLeDAUORZF8SQ4ubVlva_pnXHislKxZtQFCE4nyDA73am_OxA3q3jgdh-PdagXbC3ixmS4AL7cqg2EY8IZdGiW12hu_l3ZpfdPsYrL_HMKNA-SUzHf2Ejud33cKtCN71bUeEb5dTwim178G_Gg-pElyrboWWyKfpzpCUHQtZRVfAeSGAXS2ZELc3kA1xzWPWZSeJ2hCkvZZ-eBW8RiIO84HzfjFvPhEGNBgiv4nH8uwvVR2t1VqOuf7UNG7PqXkufvmeFUWhjnEoqzS-VQ-lsO1asNOpj3f89n5SZiZ1IsmCSFRPgGgf2tZ8BFHJvsrg-&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=iNJiB%2F6G1HJUgTI4%2F8YGLw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            McKinney, TX
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2775978793/?eBP=CwEAAAF9Bj1r8zkA1xActwusKpIr3rKftcQi2-a-kRR__fKLsKStTcyjF9_VkfypBS90PJhH44BnAagqq2p1qUYrEDJS5-JLe_kG7rvLCk0Y1i5UrQ9B7N_7Et33T0pG690KxDKybJlkQRVVHh3XcXMMJGiNpMKrgs9Ndvq6FZKcTdI4FaItmdmoFh2upLjspCl1Iwk_84euUVGAUYjOQomPbKJ9nHmWZ0oalwsV4ce4Np7NG2Ml_I6PltEvPxU4biE9Zkd8aJWbOvW1gNnNKdafb2yJC3tuDTaSVFaQ7ZCzqrIPQiNtSJbSqGkbLHirykFr3tPhJOxqvvuq5PRWA72mGTKF76TyJYz8cDWh8fACxNbWtp8W44_GusY8puYE&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=uEeq%2FBf34sE4hpDw7O0aEw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roofing Sales Rep, New Construction</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            Irving, TX
+            Stamford, CT
           </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Location: DFW
-Pay: base 55-65k + commission
-Direct hire
-The Role
-We have an immediate need for a roofing sales rep with new constructio...</x:t>
+          Summary
+ Accountant Job Description 
+WWE seeks a motivated, experienced Accountant to join our General Accounting team. The ideal candida...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2783010603/?eBP=CwEAAAF9Bj1r9IxAg0znB6f7i22O5DSvNfiy7PkeZCUIco4nE4Z0nfINYgsI4cWj2DxMtrd-B9r2YB_vnTVDVnHboTLffCTTcuRrkOQGa5meOy1jLb6mZl3YaGqkuCHQjtdpei9-nfArxymc6ioWHljU_zQfSWOXJ8mrbxTMDYn5r7zbRJyZzL3BF3EHhNFocrlZgnK_zRMEBJBALuvjg-FIvdxOirYZumzae18Nc0Mr4j2lfKdvqTp4E1XtbueoFgcPJqL4cSafy_29rQu7Mno6EcBkIPewektXvwYxxBD-g57S4j-3kQgD5Np7aRwj-IxNJnEPRvTEQghFJNbmHYxir7MM2hnWax_-9x9jVl6-J1Di3259YIma2QbfX8-S&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=XQWPTMUwS%2BAokBD3FAcHeA%3D%3D&amp;trackingId=5tTq%2FtP%2FNZhiCFa4zfvC4A%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2786681352/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=ADAcx7Mp%2BfcRc2yHLbuwyQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Associate - Fund Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Company Description
+Blue River Partners, LLC is the preeminent outsourced service provider to the alternative asset management industry. W...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2783864135/?eBP=CwEAAAF9BrfPcmOVv_YN8JUmdWEx7ShWSueGs2r5jxSCldQBtWj-EPRqG6TOL5uWlznLtop0ZAjy2ywWIqmuri3h64okU-QzBM1snbsFd17jLyhySLsEdMuziMMApuMe7V_2zZyDmHTLtnpzoacpAI-Y2k1zGlONOPpQHEoU2KsAWMJaxVOp2sFqAs4890i54PxrWlIWTyLVwAr0uw9Gr89qbdRj8b8LneD6DnWK-EOTP01fphUZ8XMxyqPU2UikG_oMDo6dgAKuauMqtLvg6YW6NTbhyUmGI4ezq_8KO5JL5zvgRHuaKAah1uieWAPA-qur7ugbXXYYaMA5cXEsCqwnw2lLWCM0&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=Ha%2B%2BHI84zTWnc4iegqJqlg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sr. Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            White Plains, NY
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+                Contract · Associate
+              </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Description
+If you are interested in this interim Senior Accountant position, please email your resume to tami.witherell@roberthalf with t...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2786038223/?eBP=CwEAAAF9BrfPcmFvYdMBsXg8dTKsM7HP8BWQO47FgHu7QZ06uk_IRaP66upINxfFmQPElZ7u47kHAT6U95xiwP6HamLSUvWrW6RB9-1DTZQ8oiabk4MWJhKjA5KcFJAiBEeUauBqDOlbMRNsdxEkNmxiTMnFWrkWWSvnkqfmslyLycznexXOJFOVdVQZVS4HVruFSRYjf2ds-RPvfltq1gYgZOnaPUTX0dz-R45b9vjpSXDBz6p_kRZJwCkoDdIZmAOkjOeFYE1Ae7B9H4LEZ20vvMB6FmkVMvGP42YZgIbj8adMwzkJSVfOvJcLF2xYZkSSSjOGmgpQsEfQLxrudpf4TW0&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=u2xbKB1Di%2B7A2smWQaq7DQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Shelton, CT
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          At Pitney Bowes, we do the right thing, the right way. As a member of our team, you can too.
+We have amazing people who are the driving fo...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2782089403/?eBP=CwEAAAF9BrfPcqA9Q9wWcbtWZTwWb0WWeRwOXx09rD-MPSR9xD8_kE4UFvNyz87dMSPNu33Cupw3944viCXHXrU_psyKtwHPE5re4caSKXWjJpMlfStLCMO2hJDmAnr4PRyOc0_VLadKYFcelO0AeuIigmlTWGCFeeaKz5fmlkPppWBnwEoHTydDPt042YE_91RDipEMR1caUQ74mw9fFjs5vokcHaOshbUp3eQN1-G9qcdSdNObnIjWcknFXsH23WnynwR-ta3sIBIe3Na5WsvtLEZ6VUanXdIjep9qde8c_gXUdGi9QN_gafxzcZKrSKr8S41DmNoXxH_jC66Atln3N3cT7dfs6OHqcx6URZNStpfIit6MQHXpy0gAYbSQujU&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=LsAudFdfaomeN6%2BJUW5xoA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entry-Level Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Brooklyn, NY
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Our client is a digital marketing firm is hiring for their Entry-Level Accountant Positions. The company has a great work hard play hard me...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2785829705/?eBP=CwEAAAF9BrfPcv7Kr6Rvu_bg8GgepLPg6_3q09vdJNEH8NSSRmhIxZE_nZ7OWV5ooE_D0haLcQff99piSR_Ea922ylYO5mPr-1cV4QlLixqg_wWetUshyMoA4AywhqWD8AS3fgPwp4iE37FqMi4Zh-bSWPfCJxI0QbG4haRndw41RtGMKZurzLtw3j5SKy-eVCWw2iatau3gkJ7OHq_PNWeTFQsHILoUxY9rgtnlfoRG8WKGEIE11AU4hL1E-nNSm32LdiSFw-LSGZIbJvwizjjj2naFsTigvXxp8Dvc8VOFfS6MQqXL4AE98-335P65V5uC0CFdB6AngUfYsl4Saa7_AKPRyHK0_q3aVc574-gJ-Yo3JWiIt3Z6ij_1domivsc&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=0hrjuca2MoIuOSx5LOXORA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -271,8 +248,2708 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4002">
+  <x:cellStyleXfs count="4902">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -12696,179 +15373,179 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="7" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C3" s="7" t="s">
+      <x:c r="E3" s="12" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D3" s="7" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E3" s="12" t="s">
+      <x:c r="F3" s="7" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="7" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="7" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B4" s="7" t="s">
+      <x:c r="C4" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E4" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C4" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D4" s="7" t="s">
+      <x:c r="F4" s="7" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="E4" s="8" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F4" s="7" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D5" s="7" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B5" s="7" t="s">
+      <x:c r="E5" s="8" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C5" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D5" s="7" t="s">
+      <x:c r="F5" s="7" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="E5" s="8" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F5" s="7" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Job Hunter/exceltestsheet/LinkedInJobs.xlsx
+++ b/Job Hunter/exceltestsheet/LinkedInJobs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Job Title</x:t>
   </x:si>
@@ -55,63 +55,116 @@
     <x:t>URL</x:t>
   </x:si>
   <x:si>
-    <x:t>Senior Revenue Accountant - 100% U.S. remote - must have ASC 606 experience</x:t>
+    <x:t>Broadcast Engineer</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            New York, NY
+            Dallas-Fort Worth Metroplex
           </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-                Full-time · Associate
+                Temporary · Mid-Senior level
               </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Sprinklr is a unified customer experience management (Unified-CXM) platform for modern enterprises with employees around the world helping ...</x:t>
+          The Maslow Media Group is in search of a Broadcast Engineer for our client, a premier global telecommunications partner in Dallas, Texas.
+T...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2779839687/?eBP=CwEAAAF9BrfPcnkslRNACbG8RwZ4HAQ6L4ZWENdKw1xGau_1Ob3NYPzTaAn6cnuf6bvDvOhh88530sNnMqc6ixpJAhMEQOEkVML3Iq3trf6EBBA0aHEYiQvOAqI0lAWrg2YmOGfRm7Y__x7WR07GG9_Ndpa9pfm0_LpY5L6i1CBFHjqZ_lbd9TkyNR_uw6rEPfAZUDNK7-zsyOE8kM2ZVVwGLuWmopatC_V-9BrXtzQBBpi2NQCf1xQ4N_0rAs2-UT86JtfSpFcnvcn2oUUVp7KIhlLvhOkjX6LFSR87T7Wif_P2Bk3SNwwJBchlW_i6sMPARQdl0EU4aPiyMStVohh2e5M&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=I6XIgDh4RhcBMl4bI9ZWWQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2782043279/?eBP=CwEAAAF9EJjPuOPqt7RHscU9fcFAZ2owK0xyOWEUXRTD1E_vtIKaoYY5JXXRZk92HTz8QT1Q_EPQHTSccOF0v0Dj8MI4weCg4BssfgeUVyCxgg7-7hytfJsFtRqMhqPZ2jqLu9gg8lsA--s6DFkROG0sAgzr00zHd339A7sdUPJcuRdnvBu_eb885MkEeO0SfzJrB2A9zaLhliyVML08xM5UbxwlT23kTWM2rheDLIWHk5qe7Ly6mcfudmDx98zFckntKGrQi9YibhbQN6T7msII7dQXoYzWED2-GpWBBfgZzWggdujqeZYkKmEI1rf51hf6YopgijTHGSAZDRfrZ4cqPZuTDO2GqWa-iNNMAzplCH3mN8N9TCmTL81QAg&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=sUTWp7DTIHh6A7d4ugenhg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
-    <x:t>Experienced Tax Accountant - Work From Home</x:t>
+    <x:t>Partner Engineer, AI/PyTorch</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-                Part-time · Associate
+            Dallas, TX
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+                Full-time
+              </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Facebook's mission is to give people the power to build community and bring the world closer together. Through our family of apps and servi...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2789883659/?eBP=CwEAAAF9EJjPuAL4HcI0Zl6JaZ3R-JNQmfOQA20hbo126fJC6FIrV8EWkuBxlKRz7RfcnmL2SYhYHu6IffWj_LKIU7yKPO78UIa6vnUqQ6qYAmgvBomaCl0ptMl6q3e5SG5SNMiBnC0qvpdgNHhXJmclBFm8LwAArObuMGYSgYKKkTg__z74VzUC38Xvz53ISpK1PYncuvIEruGexy0gFMCazqLsrm_7i3Qo2ifutUTKezWn75QKweyE3lif8FYOsIVCZlKfk6C4NWe8HNTE5eyHj6x7-5NAcS8JoXWQ3sPumZbNbeuGEpTQRKF3_-yfekkB5wa98fM-UEm9fUPR6bmVzMs&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=o4K7y2SyuU1O%2BDxNtSqD%2Bw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MQ Series/Messaging-Site Reliablity Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Plano, TX
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          As a member of the Infrastructure Engineering team, you'll play a big part in designing the platforms, servers, and networks that make it p...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2783721294/?eBP=CwEAAAF9EJjPuKKtDN9iCZLLBsSkK8puMjSDUzaOuUFnHhFzQwuYq2KYJR9FrUBdcVKXmFtfUntFUTF6x4_4wGjZjy4J1NiPfAJQeH_rgSI689vzrwSgwjNCtCqEhA2UbSHoZSEN0-Q0wDlQ4OI939lDio_0CcaFYXGpOUV3bWqljY9JR47JpxMiceW2CQaZ08EA1m884mL4WI-SQE5NhUz0OunB5IWVT-toiyS59lOEXvY234CbBnpPmIhC6GFN_-kR-5oOZ6bSRf5B_XlLUb6K6k0of1-o5ReO9GQerfsDQtduTnBQr14Y-NM4wpDRkHLxBMopks0LndEkjtc3jWxQhNJG1tm_hPSozUBf0HLUen4LVj2W0YPogC8&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=VQWHqU2YrNzgs6w1DHl09A%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Principal Cloud Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+            Southlake, TX
+          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+                Full-time · Director
+              </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          Job # 568506
+When you join Verizon
+Verizon is a leading provider of technology, communications, information and entertainment products, t...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2784589854/?eBP=CwEAAAF9EJjPuKXAqCaCWbGAQfuf767eXqv_vQaarCrenDkxhb-_VVZg3gIrgPVGvjMYaKvXrGnYReb6YVsiF-2u8TLxqXVSsngRFrq0Nt9al4N3R6kyR4MYjKUV4weT0qu2g0NTShYLG_8lzdqqgBRD7qBcuWytG4Q5lkDcc-LWIcSn6S9cIFDdubI-1frvAzirUDhQJWjTuRN--sIZ-3LmIGlxpvPYCBLHrKmnj7B8s84w_v_3PyW-sLIQJ_ZbBPRK-HiCqe-t-p7C72ZCFGrWiamEN2yYZ5y-Ythi4HlpoHnhnlBo3rtjyKbcy33Stznztc1cbOG_8CrXdD1yJNhP&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=6chgEWAwp%2Bqdr0NbL1%2Botg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Engineer I</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+                Entry level
               </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
           Overview
-Do you have a minimum of 3 season of paid Tax Preparation experience, with a minimum of 30 tax returns per tax year? If you're a ...</x:t>
+Maintain all building related systems and the building envelop to ensure the safety of hotel guests, associates and vendors. Ensu...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2748692587/?eBP=CwEAAAF9BrfPctg_aXd7t_Cx81stTDC2dKnAcMdoz--SnKbjc4JiSPFywE0yYzE4N0J7wSaniRJrWmTl-jgx2ZbY7iWm21fjt90UIyM3y6CUP3uewWFf6pJ2InosWEWH5gfl_SUY2uNlslQUVYj8gl4areRsUtcWz7INrYKTcSEzvv-Hey9BpzWLGXuJxakIc6lLDUQ2EaNCIKDgAvaoyw_fwdnU447wOnE_rnWkWIQFQFQUti8aG8NDjM9am_bSQtRjeew2bsjSeoT-KmsaA3VQGQQNm4_Umzl7pYnPIcmIOfX77JSLlyQAFXaDXCQLcROUfeoVxp1sPQzFSpIxO37rE30&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=CdsbHDle3efojnDiKtxnlw%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2794352719/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=JOB_SEEKER_QUALIFIED&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=%2FIcIgwy4XP64y%2FFukU4Pwg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
-    <x:t>Accountant</x:t>
+    <x:t>Product Engineer (Marketing)</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            New Haven, CT
+            United States
           </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Dice is the leading career destination for tech experts at every stage of their careers. Our client, GSS Infotech, is seeking the following...</x:t>
+          About StaircaseStaircase is an API Platform for the US residential mortgage industry. We were founded by mortgage industry and technology e...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2786318752/?eBP=CwEAAAF9BrfPciI54thvN_JOGcb6UYXDA47XxX0vf9FSDEZFL9EJHV9z3oCVfKZxSKo2WPLi2E4kkW2UP5yZ1rfL2PuBTjmL4oh5-jInue-pk5EW-du-X1rKOwjhaSAGJM9MazUHDMQQXCKW-MNk--QcSUqgQVdhEUZ6HoY1Z_OCA4ITzyK0ry6zBpPMN0TMoJ6FM5mTVWYmooRs0N7r5tgH45MVsYarzU8M1io4BQaoduwZ5L6aunZWu4JjfyzUdUdVVS7ctRt_4FOmbmJ2b8NIKf3nALMZB-jShTmOv3OneKSNj-6jxtOVgxfMuXMzc2kHoKJlGZXWmHQ0AsD8hL0YJJg&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=RH0fMJ1p5%2FgKtMbvsiHtyQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2789191530/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=L0OuWh3Uu7PdGRtZoa6y3A%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
   <x:si>
-    <x:t>Entry Level Jr Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            New York City Metropolitan Area
-          </x:t>
+    <x:t>Site Reliablity Engineer</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
@@ -120,92 +173,48 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Our client is an eCommerce firm that is looking for an entry-level junior accountant to join their team!
-·  Assist with month-end closing a...</x:t>
+          BE PART OF SOMETHING REAL
+POSITION TITLE: Site Reliability Engineer
+AirTerra is disrupting the traditional small parcel shipping business...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2783859054/?eBP=CwEAAAF9BrfPcmd6C-aWTx0xl2bVkdiLAcrMvpizl9k4tnga10awuPXuoZNYP_FONjm1RSQMVLjSVV5jldRO-aDZKD0AgufpZQpEFrQ8yjXaqRfyq8PlAGLsDEavWwRbfat6p-ynT1j-CrKd-_0A4i6LgIhC2EpUo0jyIPGH78UTQACrEv9wXN2sXJrYvrH2t7DWjx4xykhNCYjAfSuHV_ihFbkk6xjIoWGiOmEiij7P8gN4Ic2Xm_oTbCEYcfyyc729LOoQPFGtbWi0RZ9QvcnBHEy6TtGvFOCY_vSqH4AG61yTTuKxlQTwcDCGRiDE_ZxOG9imTWk5fS_ZL75jnzwmmw75Hua9NAgwSATUYxaxxTLlFvBOPPWtz9L-F2fQVBc&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=OohC997PFddQ9qN1h7sNWQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2789861549/?eBP=CwEAAAF9EJjPuI-iqwOnMJR6XMSjY5B6AbgcedXokwb9skvXLyChRm7ukU2N-6KvRkz_CFFGCN-_L5CUY266S1B1sVhtdB6oBZy7AFyy0l-Bv5krO-7JmhDOOq57GGHc0jg36dLXhD31Ak5v3ewSJnVGuSwHo2q1DnfyTtDaduI-ZoCQgSbZlso-i4cyBQ8pO4eUh3ECSblSOx7T9LOJnX7HIdNdvJLaorTh-MvYitBQeljEmVKTnYpL9pJnCcQW9Cng1riybtmVKbYi532cPnUfLDP6Rpp0CI-P8QNc2GLAeflLAHuC0s8J44NGwj0LCoqEz_34zrZZIIGC_z96pIcx&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=euYr0a6wySYs5qOpmZ02%2Bg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field Service Engineer</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          SIMULATE's mission is to accelerate the world's transition to sustainable nutrition. Our first product, NUGGS, is a chicken nugget simulati...</x:t>
+          As a global leader in mass spectrometry, SCIEX delivers solutions for precision detection and quantification of molecules to help protect a...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2786815214/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=7WDFxhrw%2Bw%2Bgp6iHJyfxlQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2790604177/?eBP=CwEAAAF9EJjPuLWQVAKFET0mwbEDlzeXNf_8cCqtFVUncekgrIbvkVKHRPglvdOjY8BtGG2tQKbo1JG7QPq5YjuZtNjqZJmtW82PjiB4E55XUV8O4OkMRWbPV23v3HT5Qec-7Frsfj306nn99IzO77QcSM0vwuSijU4R6pIam-hRdr3uuughkn3JenJH_sLulZw_-dCKCLYurvy6F7XQ_7G0G7k3FHezNB2ND39rGO0swQwmWGdnMY_EJLCnCal0qtxfuMbLjnLwp46Wi7M8ihfavhEMzypdpzeHePqiYKb3GGyhntZUSZsQgqPxmc2hVgeG82ONsGB-8P4Oj5NeHVfc68M3vw&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=vFTxZepx4oc%2Fll5zNKjXrA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer Service Engineer - Dallas, TX - SIGN-ON BONUS!</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-            Stamford, CT
-          </x:t>
+          This is us!
+Videojet Technologies (a Danaher Company) is a world-leader in the product identification market, providing in-line printing, ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkedin.com/jobs/view/2789171067/?eBP=CwEAAAF9EJjPuMvjfFbgNxIdiaerUwtBhCoj7JYWC9_jTtGTkCeK4SXvhdc-SAzRgiCb_2h-a27UOUGtdjH4tbmjbZGr34puoAN0ENXT8A5Y6IyXv7bkuY6E_KXWCR24TvmF93lpqJX8AFyl-tXAwOTPwp0ZiZsWJanuyQBxEn0GWe-a65gX34a29DrF2QiAL_mh_uicKK7YksTKgHQZuiSE4UJOifrayfelbB7zgqBx4Mi1LmpjQ2aUIl7T9Qr6MG8urOQP8WzFy2UNP7ztQbeZ-qZNzRxB0YaPDW2v6uH2hrvs37ZVXLBoIgdVe5RCF20xzefgOKejOVDJAI-smjgcFEYdXg&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=vxttl5F8%2FH0mAldl1gByYg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junior Site Reliability Engineer</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Summary
- Accountant Job Description 
-WWE seeks a motivated, experienced Accountant to join our General Accounting team. The ideal candida...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2786681352/?eBP=JOB_SEARCH_ORGANIC&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=ADAcx7Mp%2BfcRc2yHLbuwyQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Associate - Fund Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Company Description
-Blue River Partners, LLC is the preeminent outsourced service provider to the alternative asset management industry. W...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2783864135/?eBP=CwEAAAF9BrfPcmOVv_YN8JUmdWEx7ShWSueGs2r5jxSCldQBtWj-EPRqG6TOL5uWlznLtop0ZAjy2ywWIqmuri3h64okU-QzBM1snbsFd17jLyhySLsEdMuziMMApuMe7V_2zZyDmHTLtnpzoacpAI-Y2k1zGlONOPpQHEoU2KsAWMJaxVOp2sFqAs4890i54PxrWlIWTyLVwAr0uw9Gr89qbdRj8b8LneD6DnWK-EOTP01fphUZ8XMxyqPU2UikG_oMDo6dgAKuauMqtLvg6YW6NTbhyUmGI4ezq_8KO5JL5zvgRHuaKAah1uieWAPA-qur7ugbXXYYaMA5cXEsCqwnw2lLWCM0&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=Ha%2B%2BHI84zTWnc4iegqJqlg%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sr. Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            White Plains, NY
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                Contract · Associate
+                Full-time · Mid-Senior level
               </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-          Description
-If you are interested in this interim Senior Accountant position, please email your resume to tami.witherell@roberthalf with t...</x:t>
+          Our client, based in Frisco, TX, is currently hiring for two SRE/Cloud Engineers to join their growing team. Come join this software compan...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2786038223/?eBP=CwEAAAF9BrfPcmFvYdMBsXg8dTKsM7HP8BWQO47FgHu7QZ06uk_IRaP66upINxfFmQPElZ7u47kHAT6U95xiwP6HamLSUvWrW6RB9-1DTZQ8oiabk4MWJhKjA5KcFJAiBEeUauBqDOlbMRNsdxEkNmxiTMnFWrkWWSvnkqfmslyLycznexXOJFOVdVQZVS4HVruFSRYjf2ds-RPvfltq1gYgZOnaPUTX0dz-R45b9vjpSXDBz6p_kRZJwCkoDdIZmAOkjOeFYE1Ae7B9H4LEZ20vvMB6FmkVMvGP42YZgIbj8adMwzkJSVfOvJcLF2xYZkSSSjOGmgpQsEfQLxrudpf4TW0&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=u2xbKB1Di%2B7A2smWQaq7DQ%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            Shelton, CT
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          At Pitney Bowes, we do the right thing, the right way. As a member of our team, you can too.
-We have amazing people who are the driving fo...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2782089403/?eBP=CwEAAAF9BrfPcqA9Q9wWcbtWZTwWb0WWeRwOXx09rD-MPSR9xD8_kE4UFvNyz87dMSPNu33Cupw3944viCXHXrU_psyKtwHPE5re4caSKXWjJpMlfStLCMO2hJDmAnr4PRyOc0_VLadKYFcelO0AeuIigmlTWGCFeeaKz5fmlkPppWBnwEoHTydDPt042YE_91RDipEMR1caUQ74mw9fFjs5vokcHaOshbUp3eQN1-G9qcdSdNObnIjWcknFXsH23WnynwR-ta3sIBIe3Na5WsvtLEZ6VUanXdIjep9qde8c_gXUdGi9QN_gafxzcZKrSKr8S41DmNoXxH_jC66Atln3N3cT7dfs6OHqcx6URZNStpfIit6MQHXpy0gAYbSQujU&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=LsAudFdfaomeN6%2BJUW5xoA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entry-Level Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-            Brooklyn, NY
-          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          Our client is a digital marketing firm is hiring for their Entry-Level Accountant Positions. The company has a great work hard play hard me...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.linkedin.com/jobs/view/2785829705/?eBP=CwEAAAF9BrfPcv7Kr6Rvu_bg8GgepLPg6_3q09vdJNEH8NSSRmhIxZE_nZ7OWV5ooE_D0haLcQff99piSR_Ea922ylYO5mPr-1cV4QlLixqg_wWetUshyMoA4AywhqWD8AS3fgPwp4iE37FqMi4Zh-bSWPfCJxI0QbG4haRndw41RtGMKZurzLtw3j5SKy-eVCWw2iatau3gkJ7OHq_PNWeTFQsHILoUxY9rgtnlfoRG8WKGEIE11AU4hL1E-nNSm32LdiSFw-LSGZIbJvwizjjj2naFsTigvXxp8Dvc8VOFfS6MQqXL4AE98-335P65V5uC0CFdB6AngUfYsl4Saa7_AKPRyHK0_q3aVc574-gJ-Yo3JWiIt3Z6ij_1domivsc&amp;recommendedFlavor=ACTIVELY_HIRING_COMPANY&amp;refId=TOe2yU2x8UeEiHqWCy%2BoPA%3D%3D&amp;trackingId=0hrjuca2MoIuOSx5LOXORA%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
+    <x:t>https://www.linkedin.com/jobs/view/2793331749/?eBP=CwEAAAF9EJjPuHms2s2EYKdenhJA_9TN64plXDBkJs0xRpm3rXEjwwPU5yOKAISpKAkY2QNSueYtsWDjrJ_FPhCXgI0vrn_n5iIYU8cGX_AdVuAvdI6A3i3JXMP3QmpJ9n-2FaV9090OSq9PNcY0uW3qKX_NBVO7Or1LsmlrP9jZNPuGptN48xNqEMHUy13O-M0Ap4O94-Dlv6GyG0UO6sctWLupSsSTHYCTT7DKGVodCDoCXesfsKn6Zq7BicXbQ4nlUnDnC9SI5DaNO2qqLxIMDF04bREyGiVI9l9SL6klLVtA8SC2DdCdRmQHnbURIzWYE8ibG6INhMOO4AoajIVh&amp;recommendedFlavor=COMPANY_RECRUIT&amp;refId=MtxspwAOdmvDJ5BeokPQvA%3D%3D&amp;trackingId=IqLCw%2FhUBS5EcwXdL%2Bv44g%3D%3D&amp;trk=flagship3_search_srp_jobs</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -248,8 +257,1808 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4902">
+  <x:cellStyleXfs count="5502">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -15373,179 +17182,179 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B4" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D5" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E5" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
